--- a/Financial Analysis/BA.xlsx
+++ b/Financial Analysis/BA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antos\Desktop\Financial Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF40CDE-9BAC-4E17-BB32-8BB882B44E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F21EAE-76D8-40A5-9DB0-1E3619380ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DAAEC582-3359-4770-A2A8-463EF00396F8}"/>
   </bookViews>
@@ -349,6 +349,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9136FC7F-8D27-0758-2380-84E01070B435}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29481780" y="0"/>
+          <a:ext cx="0" cy="8625840"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -687,7 +742,7 @@
       </c>
       <c r="F3" s="6">
         <f ca="1">TODAY()</f>
-        <v>45770</v>
+        <v>45780</v>
       </c>
       <c r="G3" s="6">
         <v>45861</v>
@@ -769,7 +824,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AN1" sqref="AN1"/>
+      <selection pane="bottomRight" activeCell="AV37" sqref="AV37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2402,5 +2457,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>